--- a/2016年5.09-5.15/5.9-5.15.xlsx
+++ b/2016年5.09-5.15/5.9-5.15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -2131,9 +2131,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10092,7 +10090,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -12837,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E161" si="4">SUM(B130,C130,D130)</f>
+        <f t="shared" ref="E130:E141" si="4">SUM(B130,C130,D130)</f>
         <v>0</v>
       </c>
     </row>
@@ -13083,10 +13081,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13134,7 +13132,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">SUM(B2,C2,D2)</f>
+        <f t="shared" ref="E2" si="0">SUM(B2,C2,D2)</f>
         <v>10</v>
       </c>
       <c r="G2">
@@ -16207,6 +16205,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:F148">
@@ -16270,7 +16271,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">SUM(B2,C2,D2)</f>
+        <f t="shared" ref="E2" si="0">SUM(B2,C2,D2)</f>
         <v>11</v>
       </c>
       <c r="G2">
@@ -19365,7 +19366,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>SUM(B2,C2,D2)</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(B2,C2,D2)</f>
         <v>9</v>
       </c>
       <c r="G2">
@@ -19390,7 +19391,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>SUM(B3,C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -19411,7 +19412,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>SUM(B4,C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19432,7 +19433,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>SUM(B5,C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19453,7 +19454,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>SUM(B6,C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19474,7 +19475,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <f>SUM(B7,C7,D7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19495,7 +19496,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>SUM(B8,C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19516,7 +19517,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>SUM(B9,C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19537,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>SUM(B10,C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -19558,7 +19559,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>SUM(B11,C11,D11)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -19579,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>SUM(B12,C12,D12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -19600,7 +19601,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f>SUM(B13,C13,D13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -19621,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>SUM(B14,C14,D14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -19642,7 +19643,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>SUM(B15,C15,D15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -19663,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>SUM(B16,C16,D16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F16" t="s">
@@ -19687,7 +19688,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>SUM(B17,C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -19708,7 +19709,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>SUM(B18,C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19729,7 +19730,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f>SUM(B19,C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19750,7 +19751,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f>SUM(B20,C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19771,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>SUM(B21,C21,D21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19792,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>SUM(B22,C22,D22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19813,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>SUM(B23,C23,D23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19834,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>SUM(B24,C24,D24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19855,7 +19856,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>SUM(B25,C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19876,7 +19877,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>SUM(B26,C26,D26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19897,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>SUM(B27,C27,D27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -19918,7 +19919,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>SUM(B28,C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -19939,7 +19940,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <f>SUM(B29,C29,D29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -19960,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f>SUM(B30,C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -19981,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f>SUM(B31,C31,D31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20002,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>SUM(B32,C32,D32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20023,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f>SUM(B33,C33,D33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20044,7 +20045,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f>SUM(B34,C34,D34)</f>
+        <f t="shared" ref="E34:E65" si="1">SUM(B34,C34,D34)</f>
         <v>3</v>
       </c>
     </row>
@@ -20065,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f>SUM(B35,C35,D35)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -20086,7 +20087,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f>SUM(B36,C36,D36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20107,7 +20108,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f>SUM(B37,C37,D37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20128,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>SUM(B38,C38,D38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20149,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f>SUM(B39,C39,D39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20170,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f>SUM(B40,C40,D40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20191,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>SUM(B41,C41,D41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20212,7 +20213,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f>SUM(B42,C42,D42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -20233,7 +20234,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>SUM(B43,C43,D43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20254,7 +20255,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f>SUM(B44,C44,D44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20275,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f>SUM(B45,C45,D45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20296,7 +20297,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f>SUM(B46,C46,D46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20317,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f>SUM(B47,C47,D47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20338,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f>SUM(B48,C48,D48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20359,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f>SUM(B49,C49,D49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20380,7 +20381,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f>SUM(B50,C50,D50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20401,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f>SUM(B51,C51,D51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20422,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f>SUM(B52,C52,D52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20443,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f>SUM(B53,C53,D53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20464,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f>SUM(B54,C54,D54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20485,7 +20486,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f>SUM(B55,C55,D55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20506,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f>SUM(B56,C56,D56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20527,7 +20528,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f>SUM(B57,C57,D57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20548,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f>SUM(B58,C58,D58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20569,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f>SUM(B59,C59,D59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20590,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f>SUM(B60,C60,D60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20611,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f>SUM(B61,C61,D61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20632,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f>SUM(B62,C62,D62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20653,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f>SUM(B63,C63,D63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20674,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f>SUM(B64,C64,D64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20695,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f>SUM(B65,C65,D65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -20716,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f>SUM(B66,C66,D66)</f>
+        <f t="shared" ref="E66:E97" si="2">SUM(B66,C66,D66)</f>
         <v>0</v>
       </c>
     </row>
@@ -20737,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <f>SUM(B67,C67,D67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20758,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <f>SUM(B68,C68,D68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20779,7 +20780,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <f>SUM(B69,C69,D69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20800,7 +20801,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <f>SUM(B70,C70,D70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20821,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <f>SUM(B71,C71,D71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20842,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <f>SUM(B72,C72,D72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20863,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <f>SUM(B73,C73,D73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20884,7 +20885,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <f>SUM(B74,C74,D74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20905,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <f>SUM(B75,C75,D75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20926,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <f>SUM(B76,C76,D76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20947,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <f>SUM(B77,C77,D77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20968,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <f>SUM(B78,C78,D78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20989,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <f>SUM(B79,C79,D79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21010,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <f>SUM(B80,C80,D80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21031,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <f>SUM(B81,C81,D81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21052,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <f>SUM(B82,C82,D82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21073,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <f>SUM(B83,C83,D83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21094,7 +21095,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <f>SUM(B84,C84,D84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21115,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <f>SUM(B85,C85,D85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21136,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <f>SUM(B86,C86,D86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21157,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <f>SUM(B87,C87,D87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21178,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <f>SUM(B88,C88,D88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21199,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <f>SUM(B89,C89,D89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21220,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <f>SUM(B90,C90,D90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21241,7 +21242,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <f>SUM(B91,C91,D91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21262,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <f>SUM(B92,C92,D92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21283,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <f>SUM(B93,C93,D93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21304,7 +21305,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <f>SUM(B94,C94,D94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21325,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <f>SUM(B95,C95,D95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21346,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <f>SUM(B96,C96,D96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21367,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <f>SUM(B97,C97,D97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21388,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <f>SUM(B98,C98,D98)</f>
+        <f t="shared" ref="E98:E129" si="3">SUM(B98,C98,D98)</f>
         <v>0</v>
       </c>
     </row>
@@ -21409,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <f>SUM(B99,C99,D99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21430,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <f>SUM(B100,C100,D100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21451,7 +21452,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <f>SUM(B101,C101,D101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21472,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <f>SUM(B102,C102,D102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21493,7 +21494,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <f>SUM(B103,C103,D103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21514,7 +21515,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <f>SUM(B104,C104,D104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21535,7 +21536,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <f>SUM(B105,C105,D105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21556,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <f>SUM(B106,C106,D106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21577,7 +21578,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <f>SUM(B107,C107,D107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21598,7 +21599,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <f>SUM(B108,C108,D108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21619,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <f>SUM(B109,C109,D109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21640,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <f>SUM(B110,C110,D110)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21661,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <f>SUM(B111,C111,D111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21682,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <f>SUM(B112,C112,D112)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21703,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <f>SUM(B113,C113,D113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21724,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <f>SUM(B114,C114,D114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21745,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <f>SUM(B115,C115,D115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21766,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <f>SUM(B116,C116,D116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21787,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <f>SUM(B117,C117,D117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21808,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <f>SUM(B118,C118,D118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21829,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <f>SUM(B119,C119,D119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21850,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <f>SUM(B120,C120,D120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21871,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <f>SUM(B121,C121,D121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21892,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <f>SUM(B122,C122,D122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21913,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <f>SUM(B123,C123,D123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21934,7 +21935,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <f>SUM(B124,C124,D124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21955,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <f>SUM(B125,C125,D125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21976,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <f>SUM(B126,C126,D126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21997,7 +21998,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <f>SUM(B127,C127,D127)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22018,7 +22019,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <f>SUM(B128,C128,D128)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22039,7 +22040,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <f>SUM(B129,C129,D129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22060,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <f>SUM(B130,C130,D130)</f>
+        <f t="shared" ref="E130:E161" si="4">SUM(B130,C130,D130)</f>
         <v>0</v>
       </c>
     </row>
@@ -22081,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <f>SUM(B131,C131,D131)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22102,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <f>SUM(B132,C132,D132)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22123,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <f>SUM(B133,C133,D133)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22144,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <f>SUM(B134,C134,D134)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22165,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <f>SUM(B135,C135,D135)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22186,7 +22187,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <f>SUM(B136,C136,D136)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22207,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <f>SUM(B137,C137,D137)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22228,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <f>SUM(B138,C138,D138)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22249,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <f>SUM(B139,C139,D139)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22270,7 +22271,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <f>SUM(B140,C140,D140)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22291,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <f>SUM(B141,C141,D141)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22312,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <f>SUM(B142,C142,D142)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22333,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <f>SUM(B143,C143,D143)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22354,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <f>SUM(B144,C144,D144)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22375,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <f>SUM(B145,C145,D145)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22396,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <f>SUM(B146,C146,D146)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22417,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <f>SUM(B147,C147,D147)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22438,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <f>SUM(B148,C148,D148)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
